--- a/tests/sas_benchmark.xlsx
+++ b/tests/sas_benchmark.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Dropbox (UMass Medical School)/GitHub/StepReg/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lij11/Dropbox (UMass Medical School)/Project/UMMS/Github/JunhuiLi1017/StepReg/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236994B3-0D0F-9543-9B4C-4A267BE0BF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F9D093-0C44-6847-9C1B-E32E320D143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="600" windowWidth="25020" windowHeight="16360" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
+    <workbookView xWindow="-1840" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="51">
   <si>
     <t>test model</t>
   </si>
@@ -140,6 +141,54 @@
   </si>
   <si>
     <t>systematicall smaller: SAS uses score chisq to determine P-value, R uses LR chisq score to determine P-value</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>mpg ~ .</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>mtcars</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>remission</t>
+  </si>
+  <si>
+    <t>logistic</t>
+  </si>
+  <si>
+    <t>remiss ~ .</t>
+  </si>
+  <si>
+    <t>Survival::lung</t>
+  </si>
+  <si>
+    <t>cox</t>
+  </si>
+  <si>
+    <t>sur(time, status) ~ .</t>
+  </si>
+  <si>
+    <t>not exactly identical</t>
+  </si>
+  <si>
+    <t>same optional model with SAS</t>
+  </si>
+  <si>
+    <t>same statistics for variable selection with SAS</t>
   </si>
 </sst>
 </file>
@@ -208,12 +257,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +336,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -378,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038EBE37-CDA5-2245-8893-6F611E8FFBA3}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1438,4 +1502,655 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6C1CCD-4D25-EC46-9790-C004EE55E3DC}">
+  <dimension ref="A1:L75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="D18:D25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/sas_benchmark.xlsx
+++ b/tests/sas_benchmark.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lij11/Dropbox (UMass Medical School)/Project/UMMS/Github/JunhuiLi1017/StepReg/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F9D093-0C44-6847-9C1B-E32E320D143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A24439-BEF8-1B43-ADF6-D2B47282590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1840" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
+    <workbookView xWindow="-1840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{29101AD1-6FAF-C449-8C59-8CA43C027762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="56">
   <si>
     <t>test model</t>
   </si>
@@ -189,6 +190,21 @@
   </si>
   <si>
     <t>same statistics for variable selection with SAS</t>
+  </si>
+  <si>
+    <t>Are statistics same in each step?</t>
+  </si>
+  <si>
+    <t>is the optional model same?</t>
+  </si>
+  <si>
+    <t>SL; sle=0.05</t>
+  </si>
+  <si>
+    <t>SL; sls=0.05</t>
+  </si>
+  <si>
+    <t>SL; sle=0.05, sls=0.05</t>
   </si>
 </sst>
 </file>
@@ -264,19 +280,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,12 +611,13 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
@@ -1508,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6C1CCD-4D25-EC46-9790-C004EE55E3DC}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,16 +1562,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
@@ -1568,10 +1585,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="9"/>
       <c r="E3" t="s">
         <v>8</v>
       </c>
@@ -1583,10 +1600,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="9"/>
       <c r="E4" t="s">
         <v>10</v>
       </c>
@@ -1598,10 +1615,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
       <c r="E5" t="s">
         <v>11</v>
       </c>
@@ -1613,10 +1630,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
       <c r="E6" t="s">
         <v>15</v>
       </c>
@@ -1628,10 +1645,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="9"/>
       <c r="E7" t="s">
         <v>16</v>
       </c>
@@ -1643,10 +1660,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="9"/>
       <c r="E8" t="s">
         <v>17</v>
       </c>
@@ -1658,10 +1675,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
       <c r="E9" t="s">
         <v>18</v>
       </c>
@@ -1673,10 +1690,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
@@ -1690,10 +1707,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="9"/>
       <c r="E11" t="s">
         <v>8</v>
       </c>
@@ -1705,10 +1722,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="9"/>
       <c r="E12" t="s">
         <v>10</v>
       </c>
@@ -1720,10 +1737,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="9"/>
       <c r="E13" t="s">
         <v>11</v>
       </c>
@@ -1735,10 +1752,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="9"/>
       <c r="E14" t="s">
         <v>15</v>
       </c>
@@ -1750,10 +1767,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="9"/>
       <c r="E15" t="s">
         <v>16</v>
       </c>
@@ -1765,10 +1782,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="9"/>
       <c r="E16" t="s">
         <v>17</v>
       </c>
@@ -1780,10 +1797,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="9"/>
       <c r="E17" t="s">
         <v>18</v>
       </c>
@@ -1795,10 +1812,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
@@ -1812,10 +1829,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9"/>
       <c r="E19" t="s">
         <v>8</v>
       </c>
@@ -1827,10 +1844,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="9"/>
       <c r="E20" t="s">
         <v>10</v>
       </c>
@@ -1842,10 +1859,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="9"/>
       <c r="E21" t="s">
         <v>11</v>
       </c>
@@ -1857,10 +1874,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="9"/>
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -1872,10 +1889,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="9"/>
       <c r="E23" t="s">
         <v>16</v>
       </c>
@@ -1887,10 +1904,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="9"/>
       <c r="E24" t="s">
         <v>17</v>
       </c>
@@ -1902,10 +1919,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="9"/>
       <c r="E25" t="s">
         <v>18</v>
       </c>
@@ -1920,13 +1937,13 @@
       <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E26" t="s">
@@ -1941,9 +1958,9 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
@@ -1958,9 +1975,9 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E28" t="s">
@@ -1975,7 +1992,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="6"/>
       <c r="D29" t="s">
         <v>25</v>
@@ -1991,16 +2008,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
@@ -2014,10 +2031,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
@@ -2031,10 +2048,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E32" t="s">
@@ -2048,9 +2065,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
       <c r="D33" t="s">
         <v>25</v>
       </c>
@@ -2138,9 +2155,586 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="D18:D25"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BF3C21-E8C5-3548-91E1-BDC356FAA441}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
